--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2527,28 +2527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3521.735957413834</v>
+        <v>3631.496362936939</v>
       </c>
       <c r="AB2" t="n">
-        <v>4818.594504958999</v>
+        <v>4968.773534083061</v>
       </c>
       <c r="AC2" t="n">
-        <v>4358.714608345394</v>
+        <v>4494.560761707439</v>
       </c>
       <c r="AD2" t="n">
-        <v>3521735.957413834</v>
+        <v>3631496.362936939</v>
       </c>
       <c r="AE2" t="n">
-        <v>4818594.504958999</v>
+        <v>4968773.534083061</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.580922025867259e-07</v>
+        <v>1.587695235705742e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.70833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4358714.608345394</v>
+        <v>4494560.761707439</v>
       </c>
     </row>
     <row r="3">
@@ -2633,28 +2633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1171.733506406565</v>
+        <v>1232.540917274364</v>
       </c>
       <c r="AB3" t="n">
-        <v>1603.21747669944</v>
+        <v>1686.416858882399</v>
       </c>
       <c r="AC3" t="n">
-        <v>1450.208650853106</v>
+        <v>1525.467600771589</v>
       </c>
       <c r="AD3" t="n">
-        <v>1171733.506406565</v>
+        <v>1232540.917274364</v>
       </c>
       <c r="AE3" t="n">
-        <v>1603217.47669944</v>
+        <v>1686416.858882399</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.614794728057203e-06</v>
+        <v>2.987793023465975e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.410416666666668</v>
       </c>
       <c r="AH3" t="n">
-        <v>1450208.650853106</v>
+        <v>1525467.600771589</v>
       </c>
     </row>
     <row r="4">
@@ -2739,28 +2739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>884.4455585872284</v>
+        <v>933.1427096959205</v>
       </c>
       <c r="AB4" t="n">
-        <v>1210.13743224327</v>
+        <v>1276.767022756865</v>
       </c>
       <c r="AC4" t="n">
-        <v>1094.643614148525</v>
+        <v>1154.91417005872</v>
       </c>
       <c r="AD4" t="n">
-        <v>884445.5585872284</v>
+        <v>933142.7096959206</v>
       </c>
       <c r="AE4" t="n">
-        <v>1210137.43224327</v>
+        <v>1276767.022756865</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.896059904287603e-06</v>
+        <v>3.508207238773807e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.014583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1094643.614148525</v>
+        <v>1154914.17005872</v>
       </c>
     </row>
     <row r="5">
@@ -2845,28 +2845,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>747.5559408459208</v>
+        <v>796.1677511000414</v>
       </c>
       <c r="AB5" t="n">
-        <v>1022.839018105899</v>
+        <v>1089.351841497297</v>
       </c>
       <c r="AC5" t="n">
-        <v>925.2206977814495</v>
+        <v>985.3856306597061</v>
       </c>
       <c r="AD5" t="n">
-        <v>747555.9408459207</v>
+        <v>796167.7511000414</v>
       </c>
       <c r="AE5" t="n">
-        <v>1022839.018105899</v>
+        <v>1089351.841497297</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.051426819580847e-06</v>
+        <v>3.795676709366567e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.407291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>925220.6977814495</v>
+        <v>985385.6306597061</v>
       </c>
     </row>
     <row r="6">
@@ -2951,28 +2951,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>674.5253165355504</v>
+        <v>711.1122078851361</v>
       </c>
       <c r="AB6" t="n">
-        <v>922.9152960406951</v>
+        <v>972.9750948849269</v>
       </c>
       <c r="AC6" t="n">
-        <v>834.8335555063238</v>
+        <v>880.1157174082313</v>
       </c>
       <c r="AD6" t="n">
-        <v>674525.3165355504</v>
+        <v>711112.207885136</v>
       </c>
       <c r="AE6" t="n">
-        <v>922915.2960406952</v>
+        <v>972975.0948849269</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.142166933489202e-06</v>
+        <v>3.96356967716816e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.09375</v>
       </c>
       <c r="AH6" t="n">
-        <v>834833.5555063238</v>
+        <v>880115.7174082312</v>
       </c>
     </row>
     <row r="7">
@@ -3057,28 +3057,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>661.4055113318607</v>
+        <v>697.9924026814462</v>
       </c>
       <c r="AB7" t="n">
-        <v>904.9641997560509</v>
+        <v>955.023998600283</v>
       </c>
       <c r="AC7" t="n">
-        <v>818.5956866565643</v>
+        <v>863.8778485584716</v>
       </c>
       <c r="AD7" t="n">
-        <v>661405.5113318607</v>
+        <v>697992.4026814462</v>
       </c>
       <c r="AE7" t="n">
-        <v>904964.1997560509</v>
+        <v>955023.9986002829</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.15806833608729e-06</v>
+        <v>3.992991435191269e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.041666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>818595.6866565644</v>
+        <v>863877.8485584715</v>
       </c>
     </row>
   </sheetData>
@@ -3354,28 +3354,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2109.114713837166</v>
+        <v>2203.053729189763</v>
       </c>
       <c r="AB2" t="n">
-        <v>2885.783799046217</v>
+        <v>3014.315304148681</v>
       </c>
       <c r="AC2" t="n">
-        <v>2610.368643488245</v>
+        <v>2726.633282138716</v>
       </c>
       <c r="AD2" t="n">
-        <v>2109114.713837166</v>
+        <v>2203053.729189763</v>
       </c>
       <c r="AE2" t="n">
-        <v>2885783.799046217</v>
+        <v>3014315.304148681</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.131110917084849e-06</v>
+        <v>2.156071975024668e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.89791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2610368.643488245</v>
+        <v>2726633.282138716</v>
       </c>
     </row>
     <row r="3">
@@ -3460,28 +3460,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>897.6069645532423</v>
+        <v>944.7471539386829</v>
       </c>
       <c r="AB3" t="n">
-        <v>1228.145448526222</v>
+        <v>1292.644735321761</v>
       </c>
       <c r="AC3" t="n">
-        <v>1110.932970631841</v>
+        <v>1169.276536020932</v>
       </c>
       <c r="AD3" t="n">
-        <v>897606.9645532423</v>
+        <v>944747.1539386829</v>
       </c>
       <c r="AE3" t="n">
-        <v>1228145.448526222</v>
+        <v>1292644.735321761</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.833622100411063e-06</v>
+        <v>3.495166710680416e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.572916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1110932.970631841</v>
+        <v>1169276.536020932</v>
       </c>
     </row>
     <row r="4">
@@ -3566,28 +3566,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>690.2250084167748</v>
+        <v>737.2798569476438</v>
       </c>
       <c r="AB4" t="n">
-        <v>944.3963070941095</v>
+        <v>1008.778826767451</v>
       </c>
       <c r="AC4" t="n">
-        <v>854.2644490135885</v>
+        <v>912.5023913707402</v>
       </c>
       <c r="AD4" t="n">
-        <v>690225.0084167748</v>
+        <v>737279.8569476438</v>
       </c>
       <c r="AE4" t="n">
-        <v>944396.3070941095</v>
+        <v>1008778.826767451</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.091687433061508e-06</v>
+        <v>3.987079062553955e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>854264.4490135886</v>
+        <v>912502.3913707401</v>
       </c>
     </row>
     <row r="5">
@@ -3672,28 +3672,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>613.5163552450813</v>
+        <v>648.8075811517839</v>
       </c>
       <c r="AB5" t="n">
-        <v>839.4401436776617</v>
+        <v>887.7271559022161</v>
       </c>
       <c r="AC5" t="n">
-        <v>759.3251545267061</v>
+        <v>803.0037220757964</v>
       </c>
       <c r="AD5" t="n">
-        <v>613516.3552450812</v>
+        <v>648807.5811517839</v>
       </c>
       <c r="AE5" t="n">
-        <v>839440.1436776617</v>
+        <v>887727.1559022161</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.201553843686961e-06</v>
+        <v>4.19650139715275e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.140625</v>
       </c>
       <c r="AH5" t="n">
-        <v>759325.1545267061</v>
+        <v>803003.7220757965</v>
       </c>
     </row>
     <row r="6">
@@ -3778,28 +3778,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>615.3156191123551</v>
+        <v>650.6068450190577</v>
       </c>
       <c r="AB6" t="n">
-        <v>841.9019758787853</v>
+        <v>890.1889881033395</v>
       </c>
       <c r="AC6" t="n">
-        <v>761.5520329177574</v>
+        <v>805.2306004668478</v>
       </c>
       <c r="AD6" t="n">
-        <v>615315.6191123551</v>
+        <v>650606.8450190577</v>
       </c>
       <c r="AE6" t="n">
-        <v>841901.9758787852</v>
+        <v>890188.9881033396</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.203364828477491e-06</v>
+        <v>4.199953413657125e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.134374999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>761552.0329177574</v>
+        <v>805230.6004668478</v>
       </c>
     </row>
   </sheetData>
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>629.3242471796432</v>
+        <v>681.556118781026</v>
       </c>
       <c r="AB2" t="n">
-        <v>861.0691988175016</v>
+        <v>932.5351498500587</v>
       </c>
       <c r="AC2" t="n">
-        <v>778.8899630005694</v>
+        <v>843.5353039696715</v>
       </c>
       <c r="AD2" t="n">
-        <v>629324.2471796431</v>
+        <v>681556.118781026</v>
       </c>
       <c r="AE2" t="n">
-        <v>861069.1988175017</v>
+        <v>932535.1498500587</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.03073078264549e-06</v>
+        <v>4.324925118830366e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.637500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>778889.9630005694</v>
+        <v>843535.3039696715</v>
       </c>
     </row>
     <row r="3">
@@ -4181,28 +4181,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>521.0464134024439</v>
+        <v>562.9001833672074</v>
       </c>
       <c r="AB3" t="n">
-        <v>712.9186897626467</v>
+        <v>770.1848642864505</v>
       </c>
       <c r="AC3" t="n">
-        <v>644.8787305993644</v>
+        <v>696.6795018001972</v>
       </c>
       <c r="AD3" t="n">
-        <v>521046.413402444</v>
+        <v>562900.1833672074</v>
       </c>
       <c r="AE3" t="n">
-        <v>712918.6897626468</v>
+        <v>770184.8642864506</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.221864329233319e-06</v>
+        <v>4.731989552852462e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.894791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>644878.7305993644</v>
+        <v>696679.5018001972</v>
       </c>
     </row>
   </sheetData>
@@ -4478,28 +4478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>999.9629816553811</v>
+        <v>1054.736710540362</v>
       </c>
       <c r="AB2" t="n">
-        <v>1368.193466754145</v>
+        <v>1443.137299060951</v>
       </c>
       <c r="AC2" t="n">
-        <v>1237.61500255872</v>
+        <v>1305.406300694493</v>
       </c>
       <c r="AD2" t="n">
-        <v>999962.9816553812</v>
+        <v>1054736.710540362</v>
       </c>
       <c r="AE2" t="n">
-        <v>1368193.466754145</v>
+        <v>1443137.299060951</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.659195204628015e-06</v>
+        <v>3.368739901710971e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.11458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1237615.00255872</v>
+        <v>1305406.300694493</v>
       </c>
     </row>
     <row r="3">
@@ -4584,28 +4584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>553.5644249607566</v>
+        <v>597.451609145558</v>
       </c>
       <c r="AB3" t="n">
-        <v>757.4112677701515</v>
+        <v>817.4596493377151</v>
       </c>
       <c r="AC3" t="n">
-        <v>685.1249994075582</v>
+        <v>739.4424477167465</v>
       </c>
       <c r="AD3" t="n">
-        <v>553564.4249607566</v>
+        <v>597451.609145558</v>
       </c>
       <c r="AE3" t="n">
-        <v>757411.2677701515</v>
+        <v>817459.6493377151</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.229981553787842e-06</v>
+        <v>4.527633529418707e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.524999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>685124.9994075582</v>
+        <v>739442.4477167465</v>
       </c>
     </row>
     <row r="4">
@@ -4690,28 +4690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>549.4505285187113</v>
+        <v>593.1671205029205</v>
       </c>
       <c r="AB4" t="n">
-        <v>751.7824531658433</v>
+        <v>811.5974229585601</v>
       </c>
       <c r="AC4" t="n">
-        <v>680.0333909689944</v>
+        <v>734.1397039955315</v>
       </c>
       <c r="AD4" t="n">
-        <v>549450.5285187113</v>
+        <v>593167.1205029205</v>
       </c>
       <c r="AE4" t="n">
-        <v>751782.4531658433</v>
+        <v>811597.4229585601</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.242225347899088e-06</v>
+        <v>4.552492664531828e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>680033.3909689944</v>
+        <v>734139.7039955314</v>
       </c>
     </row>
   </sheetData>
@@ -4987,28 +4987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>515.3188504436296</v>
+        <v>555.419552285583</v>
       </c>
       <c r="AB2" t="n">
-        <v>705.0819854401526</v>
+        <v>759.9495348184203</v>
       </c>
       <c r="AC2" t="n">
-        <v>637.7899503385255</v>
+        <v>687.4210178112206</v>
       </c>
       <c r="AD2" t="n">
-        <v>515318.8504436295</v>
+        <v>555419.552285583</v>
       </c>
       <c r="AE2" t="n">
-        <v>705081.9854401526</v>
+        <v>759949.5348184203</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.155782328798141e-06</v>
+        <v>4.800506170117264e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.451041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>637789.9503385255</v>
+        <v>687421.0178112206</v>
       </c>
     </row>
     <row r="3">
@@ -5093,28 +5093,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>519.8361205025033</v>
+        <v>559.9368223444566</v>
       </c>
       <c r="AB3" t="n">
-        <v>711.2627136225935</v>
+        <v>766.1302630008614</v>
       </c>
       <c r="AC3" t="n">
-        <v>643.3807984979406</v>
+        <v>693.0118659706358</v>
       </c>
       <c r="AD3" t="n">
-        <v>519836.1205025032</v>
+        <v>559936.8223444566</v>
       </c>
       <c r="AE3" t="n">
-        <v>711262.7136225936</v>
+        <v>766130.2630008614</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.156132123107536e-06</v>
+        <v>4.801285093721047e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.450000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>643380.7984979406</v>
+        <v>693011.8659706358</v>
       </c>
     </row>
   </sheetData>
@@ -5390,28 +5390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2393.915098172954</v>
+        <v>2488.847599939118</v>
       </c>
       <c r="AB2" t="n">
-        <v>3275.460249400829</v>
+        <v>3405.351086443696</v>
       </c>
       <c r="AC2" t="n">
-        <v>2962.854920335223</v>
+        <v>3080.349158193648</v>
       </c>
       <c r="AD2" t="n">
-        <v>2393915.098172954</v>
+        <v>2488847.599939118</v>
       </c>
       <c r="AE2" t="n">
-        <v>3275460.249400829</v>
+        <v>3405351.086443696</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.057536900382104e-06</v>
+        <v>1.999552349470482e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.73229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2962854.920335223</v>
+        <v>3080349.158193648</v>
       </c>
     </row>
     <row r="3">
@@ -5496,28 +5496,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>961.6011542659472</v>
+        <v>1020.901965049335</v>
       </c>
       <c r="AB3" t="n">
-        <v>1315.705122115541</v>
+        <v>1396.843107596504</v>
       </c>
       <c r="AC3" t="n">
-        <v>1190.13607186457</v>
+        <v>1263.530361889107</v>
       </c>
       <c r="AD3" t="n">
-        <v>961601.1542659472</v>
+        <v>1020901.965049335</v>
       </c>
       <c r="AE3" t="n">
-        <v>1315705.122115541</v>
+        <v>1396843.107596504</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.773778480912425e-06</v>
+        <v>3.353795907894204e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.782291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1190136.07186457</v>
+        <v>1263530.361889107</v>
       </c>
     </row>
     <row r="4">
@@ -5602,28 +5602,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>736.7607296032935</v>
+        <v>784.2696509136607</v>
       </c>
       <c r="AB4" t="n">
-        <v>1008.068533832629</v>
+        <v>1073.072335915157</v>
       </c>
       <c r="AC4" t="n">
-        <v>911.8598877967152</v>
+        <v>970.6598182418963</v>
       </c>
       <c r="AD4" t="n">
-        <v>736760.7296032935</v>
+        <v>784269.6509136608</v>
       </c>
       <c r="AE4" t="n">
-        <v>1008068.533832629</v>
+        <v>1073072.335915157</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.03909745436425e-06</v>
+        <v>3.855451383493219e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>911859.8877967151</v>
+        <v>970659.8182418963</v>
       </c>
     </row>
     <row r="5">
@@ -5708,28 +5708,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>635.3580576086476</v>
+        <v>670.9898380999742</v>
       </c>
       <c r="AB5" t="n">
-        <v>869.3249244393945</v>
+        <v>918.0778984708393</v>
       </c>
       <c r="AC5" t="n">
-        <v>786.3577737560926</v>
+        <v>830.457832371205</v>
       </c>
       <c r="AD5" t="n">
-        <v>635358.0576086476</v>
+        <v>670989.8380999742</v>
       </c>
       <c r="AE5" t="n">
-        <v>869324.9244393945</v>
+        <v>918077.8984708393</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.175495934515357e-06</v>
+        <v>4.113348674218304e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.161458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>786357.7737560925</v>
+        <v>830457.832371205</v>
       </c>
     </row>
     <row r="6">
@@ -5814,28 +5814,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>626.5229064947339</v>
+        <v>662.1546869860605</v>
       </c>
       <c r="AB6" t="n">
-        <v>857.2362809059799</v>
+        <v>905.9892549374247</v>
       </c>
       <c r="AC6" t="n">
-        <v>775.4228533949891</v>
+        <v>819.5229120101014</v>
       </c>
       <c r="AD6" t="n">
-        <v>626522.9064947339</v>
+        <v>662154.6869860605</v>
       </c>
       <c r="AE6" t="n">
-        <v>857236.2809059799</v>
+        <v>905989.2549374247</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.190451908216136e-06</v>
+        <v>4.141626885920616e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.1125</v>
       </c>
       <c r="AH6" t="n">
-        <v>775422.8533949892</v>
+        <v>819522.9120101015</v>
       </c>
     </row>
   </sheetData>
@@ -6111,28 +6111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>514.9715414640957</v>
+        <v>563.8841455335179</v>
       </c>
       <c r="AB2" t="n">
-        <v>704.6067819721636</v>
+        <v>771.5311647317435</v>
       </c>
       <c r="AC2" t="n">
-        <v>637.360099622569</v>
+        <v>697.8973132205359</v>
       </c>
       <c r="AD2" t="n">
-        <v>514971.5414640957</v>
+        <v>563884.1455335179</v>
       </c>
       <c r="AE2" t="n">
-        <v>704606.7819721636</v>
+        <v>771531.1647317435</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.083403631458726e-06</v>
+        <v>4.776341888528747e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.948958333333332</v>
       </c>
       <c r="AH2" t="n">
-        <v>637360.099622569</v>
+        <v>697897.3132205359</v>
       </c>
     </row>
   </sheetData>
@@ -6408,28 +6408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1463.952198299213</v>
+        <v>1532.323942299155</v>
       </c>
       <c r="AB2" t="n">
-        <v>2003.043982725791</v>
+        <v>2096.593219214973</v>
       </c>
       <c r="AC2" t="n">
-        <v>1811.876276304327</v>
+        <v>1896.497304960161</v>
       </c>
       <c r="AD2" t="n">
-        <v>1463952.198299213</v>
+        <v>1532323.942299155</v>
       </c>
       <c r="AE2" t="n">
-        <v>2003043.982725791</v>
+        <v>2096593.219214974</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.369086154133986e-06</v>
+        <v>2.683389941422074e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.83125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1811876.276304327</v>
+        <v>1896497.304960161</v>
       </c>
     </row>
     <row r="3">
@@ -6514,28 +6514,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>709.0241687805702</v>
+        <v>765.829940404712</v>
       </c>
       <c r="AB3" t="n">
-        <v>970.1181476642763</v>
+        <v>1047.8423104942</v>
       </c>
       <c r="AC3" t="n">
-        <v>877.5314332205688</v>
+        <v>947.8377110365519</v>
       </c>
       <c r="AD3" t="n">
-        <v>709024.1687805703</v>
+        <v>765829.940404712</v>
       </c>
       <c r="AE3" t="n">
-        <v>970118.1476642763</v>
+        <v>1047842.3104942</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.026185312268026e-06</v>
+        <v>3.971295210297677e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.993749999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>877531.4332205688</v>
+        <v>947837.711036552</v>
       </c>
     </row>
     <row r="4">
@@ -6620,28 +6620,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>580.7711312742177</v>
+        <v>626.1817017402536</v>
       </c>
       <c r="AB4" t="n">
-        <v>794.6366836234004</v>
+        <v>856.7694295080088</v>
       </c>
       <c r="AC4" t="n">
-        <v>718.7976738179725</v>
+        <v>775.0005576392101</v>
       </c>
       <c r="AD4" t="n">
-        <v>580771.1312742177</v>
+        <v>626181.7017402536</v>
       </c>
       <c r="AE4" t="n">
-        <v>794636.6836234004</v>
+        <v>856769.4295080088</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.224901053890199e-06</v>
+        <v>4.360775317638666e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.280208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>718797.6738179725</v>
+        <v>775000.5576392101</v>
       </c>
     </row>
     <row r="5">
@@ -6726,28 +6726,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>582.238899767607</v>
+        <v>627.6494702336429</v>
       </c>
       <c r="AB5" t="n">
-        <v>796.6449492294315</v>
+        <v>858.7776951140398</v>
       </c>
       <c r="AC5" t="n">
-        <v>720.6142733731825</v>
+        <v>776.8171571944202</v>
       </c>
       <c r="AD5" t="n">
-        <v>582238.899767607</v>
+        <v>627649.4702336428</v>
       </c>
       <c r="AE5" t="n">
-        <v>796644.9492294316</v>
+        <v>858777.6951140398</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.227388887901119e-06</v>
+        <v>4.365651437918366e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.271875000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>720614.2733731825</v>
+        <v>776817.1571944202</v>
       </c>
     </row>
   </sheetData>
@@ -7023,28 +7023,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1873.941603060505</v>
+        <v>1943.816956165084</v>
       </c>
       <c r="AB2" t="n">
-        <v>2564.00957377618</v>
+        <v>2659.616114576878</v>
       </c>
       <c r="AC2" t="n">
-        <v>2319.304098665019</v>
+        <v>2405.786085396322</v>
       </c>
       <c r="AD2" t="n">
-        <v>1873941.603060505</v>
+        <v>1943816.956165084</v>
       </c>
       <c r="AE2" t="n">
-        <v>2564009.57377618</v>
+        <v>2659616.114576878</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.207059978823593e-06</v>
+        <v>2.320817940523021e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.14791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2319304.098665019</v>
+        <v>2405786.085396321</v>
       </c>
     </row>
     <row r="3">
@@ -7129,28 +7129,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>837.8035865317925</v>
+        <v>884.3018442497902</v>
       </c>
       <c r="AB3" t="n">
-        <v>1146.31982837844</v>
+        <v>1209.940795946558</v>
       </c>
       <c r="AC3" t="n">
-        <v>1036.916672827985</v>
+        <v>1094.46574454399</v>
       </c>
       <c r="AD3" t="n">
-        <v>837803.5865317924</v>
+        <v>884301.8442497902</v>
       </c>
       <c r="AE3" t="n">
-        <v>1146319.82837844</v>
+        <v>1209940.795946558</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.894153315248483e-06</v>
+        <v>3.641894415565155e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.378125000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>1036916.672827985</v>
+        <v>1094465.74454399</v>
       </c>
     </row>
     <row r="4">
@@ -7235,28 +7235,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>645.4315665072687</v>
+        <v>691.8444833706948</v>
       </c>
       <c r="AB4" t="n">
-        <v>883.1079437263355</v>
+        <v>946.6121441722554</v>
       </c>
       <c r="AC4" t="n">
-        <v>798.8253610268769</v>
+        <v>856.2688097109432</v>
       </c>
       <c r="AD4" t="n">
-        <v>645431.5665072687</v>
+        <v>691844.4833706948</v>
       </c>
       <c r="AE4" t="n">
-        <v>883107.9437263355</v>
+        <v>946612.1441722554</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.146443019266137e-06</v>
+        <v>4.126972606844485e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.393750000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>798825.3610268768</v>
+        <v>856268.8097109431</v>
       </c>
     </row>
     <row r="5">
@@ -7341,28 +7341,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>601.6285748980922</v>
+        <v>636.5662962046571</v>
       </c>
       <c r="AB5" t="n">
-        <v>823.1747581550561</v>
+        <v>870.9780897901796</v>
       </c>
       <c r="AC5" t="n">
-        <v>744.6121145697662</v>
+        <v>787.8531633260309</v>
       </c>
       <c r="AD5" t="n">
-        <v>601628.5748980922</v>
+        <v>636566.2962046571</v>
       </c>
       <c r="AE5" t="n">
-        <v>823174.7581550562</v>
+        <v>870978.0897901796</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.211495980386631e-06</v>
+        <v>4.252050135634504e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.176041666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>744612.1145697662</v>
+        <v>787853.1633260308</v>
       </c>
     </row>
     <row r="6">
@@ -7447,28 +7447,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>604.5146686578588</v>
+        <v>639.4523899644236</v>
       </c>
       <c r="AB6" t="n">
-        <v>827.1236389626393</v>
+        <v>874.9269705977629</v>
       </c>
       <c r="AC6" t="n">
-        <v>748.1841197353625</v>
+        <v>791.4251684916272</v>
       </c>
       <c r="AD6" t="n">
-        <v>604514.6686578589</v>
+        <v>639452.3899644236</v>
       </c>
       <c r="AE6" t="n">
-        <v>827123.6389626394</v>
+        <v>874926.9705977628</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.211648329241714e-06</v>
+        <v>4.252343057247596e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.176041666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>748184.1197353625</v>
+        <v>791425.1684916272</v>
       </c>
     </row>
   </sheetData>
@@ -7744,28 +7744,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3084.395044226079</v>
+        <v>3193.145402325834</v>
       </c>
       <c r="AB2" t="n">
-        <v>4220.205373416101</v>
+        <v>4369.002411095385</v>
       </c>
       <c r="AC2" t="n">
-        <v>3817.43489567255</v>
+        <v>3952.030952913673</v>
       </c>
       <c r="AD2" t="n">
-        <v>3084395.044226079</v>
+        <v>3193145.402325834</v>
       </c>
       <c r="AE2" t="n">
-        <v>4220205.373416101</v>
+        <v>4369002.411095385</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.224486198797382e-07</v>
+        <v>1.718451814406593e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.60520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3817434.89567255</v>
+        <v>3952030.952913673</v>
       </c>
     </row>
     <row r="3">
@@ -7850,28 +7850,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1103.264911019693</v>
+        <v>1151.636422285722</v>
       </c>
       <c r="AB3" t="n">
-        <v>1509.535723869878</v>
+        <v>1575.719759584526</v>
       </c>
       <c r="AC3" t="n">
-        <v>1365.467753030431</v>
+        <v>1425.33527726635</v>
       </c>
       <c r="AD3" t="n">
-        <v>1103264.911019693</v>
+        <v>1151636.422285722</v>
       </c>
       <c r="AE3" t="n">
-        <v>1509535.723869878</v>
+        <v>1575719.759584526</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.665789568945907e-06</v>
+        <v>3.103239622763891e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.194791666666665</v>
       </c>
       <c r="AH3" t="n">
-        <v>1365467.753030431</v>
+        <v>1425335.27726635</v>
       </c>
     </row>
     <row r="4">
@@ -7956,28 +7956,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>825.3827221177377</v>
+        <v>873.7541438752158</v>
       </c>
       <c r="AB4" t="n">
-        <v>1129.325053717266</v>
+        <v>1195.508966962366</v>
       </c>
       <c r="AC4" t="n">
-        <v>1021.543855608158</v>
+        <v>1081.411269062851</v>
       </c>
       <c r="AD4" t="n">
-        <v>825382.7221177376</v>
+        <v>873754.1438752159</v>
       </c>
       <c r="AE4" t="n">
-        <v>1129325.053717266</v>
+        <v>1195508.966962366</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.942832961238817e-06</v>
+        <v>3.619350449854919e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.884374999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>1021543.855608158</v>
+        <v>1081411.269062851</v>
       </c>
     </row>
     <row r="5">
@@ -8062,28 +8062,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>710.0814695809146</v>
+        <v>758.2822991378007</v>
       </c>
       <c r="AB5" t="n">
-        <v>971.5647932641267</v>
+        <v>1037.515294734379</v>
       </c>
       <c r="AC5" t="n">
-        <v>878.8400129947494</v>
+        <v>938.4962911667914</v>
       </c>
       <c r="AD5" t="n">
-        <v>710081.4695809146</v>
+        <v>758282.2991378007</v>
       </c>
       <c r="AE5" t="n">
-        <v>971564.7932641268</v>
+        <v>1037515.29473438</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.092383454849162e-06</v>
+        <v>3.897951676580809e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.320833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>878840.0129947494</v>
+        <v>938496.2911667913</v>
       </c>
     </row>
     <row r="6">
@@ -8168,28 +8168,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>650.0941976924046</v>
+        <v>686.3728535190645</v>
       </c>
       <c r="AB6" t="n">
-        <v>889.487561414609</v>
+        <v>939.1256188179821</v>
       </c>
       <c r="AC6" t="n">
-        <v>804.5961169568311</v>
+        <v>849.4967878290774</v>
       </c>
       <c r="AD6" t="n">
-        <v>650094.1976924046</v>
+        <v>686372.8535190645</v>
       </c>
       <c r="AE6" t="n">
-        <v>889487.561414609</v>
+        <v>939125.618817982</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.166202872540798e-06</v>
+        <v>4.035471652801455e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.071874999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>804596.1169568311</v>
+        <v>849496.7878290775</v>
       </c>
     </row>
     <row r="7">
@@ -8274,28 +8274,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>650.2508707827216</v>
+        <v>686.5295266093813</v>
       </c>
       <c r="AB7" t="n">
-        <v>889.7019284487094</v>
+        <v>939.3399858520826</v>
       </c>
       <c r="AC7" t="n">
-        <v>804.7900251020631</v>
+        <v>849.6906959743094</v>
       </c>
       <c r="AD7" t="n">
-        <v>650250.8707827216</v>
+        <v>686529.5266093813</v>
       </c>
       <c r="AE7" t="n">
-        <v>889701.9284487094</v>
+        <v>939339.9858520826</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.171202594057761e-06</v>
+        <v>4.044785754776558e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.055208333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>804790.0251020631</v>
+        <v>849690.6959743093</v>
       </c>
     </row>
   </sheetData>
@@ -8571,28 +8571,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1137.09299602995</v>
+        <v>1203.730556110033</v>
       </c>
       <c r="AB2" t="n">
-        <v>1555.820802170694</v>
+        <v>1646.997251713931</v>
       </c>
       <c r="AC2" t="n">
-        <v>1407.335448419733</v>
+        <v>1489.810145585514</v>
       </c>
       <c r="AD2" t="n">
-        <v>1137092.99602995</v>
+        <v>1203730.556110033</v>
       </c>
       <c r="AE2" t="n">
-        <v>1555820.802170694</v>
+        <v>1646997.251713931</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.554750320355742e-06</v>
+        <v>3.116492904783075e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.65833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1407335.448419733</v>
+        <v>1489810.145585513</v>
       </c>
     </row>
     <row r="3">
@@ -8677,28 +8677,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>595.8344463636603</v>
+        <v>640.3163803200965</v>
       </c>
       <c r="AB3" t="n">
-        <v>815.2469758753363</v>
+        <v>876.1091203189587</v>
       </c>
       <c r="AC3" t="n">
-        <v>737.4409487041103</v>
+        <v>792.4944955025898</v>
       </c>
       <c r="AD3" t="n">
-        <v>595834.4463636603</v>
+        <v>640316.3803200965</v>
       </c>
       <c r="AE3" t="n">
-        <v>815246.9758753362</v>
+        <v>876109.1203189588</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.172800560259769e-06</v>
+        <v>4.355372975905785e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.626041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>737440.9487041102</v>
+        <v>792494.4955025897</v>
       </c>
     </row>
     <row r="4">
@@ -8783,28 +8783,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>559.6726514654657</v>
+        <v>603.9839932213097</v>
       </c>
       <c r="AB4" t="n">
-        <v>765.7688127498292</v>
+        <v>826.3975454186046</v>
       </c>
       <c r="AC4" t="n">
-        <v>692.6849120242636</v>
+        <v>747.527323540092</v>
       </c>
       <c r="AD4" t="n">
-        <v>559672.6514654657</v>
+        <v>603983.9932213096</v>
       </c>
       <c r="AE4" t="n">
-        <v>765768.8127498291</v>
+        <v>826397.5454186046</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.239775888702393e-06</v>
+        <v>4.489624844616895e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.398958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>692684.9120242635</v>
+        <v>747527.323540092</v>
       </c>
     </row>
   </sheetData>
@@ -9080,28 +9080,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>748.9318124155631</v>
+        <v>791.5128979516022</v>
       </c>
       <c r="AB2" t="n">
-        <v>1024.721546286653</v>
+        <v>1082.982866061975</v>
       </c>
       <c r="AC2" t="n">
-        <v>926.9235601147776</v>
+        <v>979.6245013010185</v>
       </c>
       <c r="AD2" t="n">
-        <v>748931.812415563</v>
+        <v>791512.8979516022</v>
       </c>
       <c r="AE2" t="n">
-        <v>1024721.546286653</v>
+        <v>1082982.866061975</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.894290222205546e-06</v>
+        <v>3.962973609818571e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.112500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>926923.5601147776</v>
+        <v>979624.5013010185</v>
       </c>
     </row>
     <row r="3">
@@ -9186,28 +9186,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>528.9448863242511</v>
+        <v>571.5258823517393</v>
       </c>
       <c r="AB3" t="n">
-        <v>723.7257288702959</v>
+        <v>781.9869261760691</v>
       </c>
       <c r="AC3" t="n">
-        <v>654.6543610623542</v>
+        <v>707.3551914673684</v>
       </c>
       <c r="AD3" t="n">
-        <v>528944.8863242511</v>
+        <v>571525.8823517392</v>
       </c>
       <c r="AE3" t="n">
-        <v>723725.7288702959</v>
+        <v>781986.9261760691</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.235994923297999e-06</v>
+        <v>4.677841214004198e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.719791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>654654.3610623542</v>
+        <v>707355.1914673684</v>
       </c>
     </row>
   </sheetData>
@@ -16048,28 +16048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>539.2034806720737</v>
+        <v>580.1797701376291</v>
       </c>
       <c r="AB2" t="n">
-        <v>737.7619902342282</v>
+        <v>793.8275572273078</v>
       </c>
       <c r="AC2" t="n">
-        <v>667.3510213417292</v>
+        <v>718.065769309507</v>
       </c>
       <c r="AD2" t="n">
-        <v>539203.4806720738</v>
+        <v>580179.7701376291</v>
       </c>
       <c r="AE2" t="n">
-        <v>737761.9902342282</v>
+        <v>793827.5572273078</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.15840869981368e-06</v>
+        <v>4.692069205799133e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.272916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>667351.0213417292</v>
+        <v>718065.769309507</v>
       </c>
     </row>
     <row r="3">
@@ -16154,28 +16154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>523.886968944426</v>
+        <v>564.8632584099813</v>
       </c>
       <c r="AB3" t="n">
-        <v>716.8052631716527</v>
+        <v>772.8708301647323</v>
       </c>
       <c r="AC3" t="n">
-        <v>648.3943748970548</v>
+        <v>699.1091228648326</v>
       </c>
       <c r="AD3" t="n">
-        <v>523886.968944426</v>
+        <v>564863.2584099813</v>
       </c>
       <c r="AE3" t="n">
-        <v>716805.2631716527</v>
+        <v>772870.8301647323</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.199722058296333e-06</v>
+        <v>4.781878488508812e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.117708333333335</v>
       </c>
       <c r="AH3" t="n">
-        <v>648394.3748970549</v>
+        <v>699109.1228648325</v>
       </c>
     </row>
   </sheetData>
@@ -16451,28 +16451,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>530.4269191513248</v>
+        <v>577.9888058565276</v>
       </c>
       <c r="AB2" t="n">
-        <v>725.7535115669718</v>
+        <v>790.8297832393824</v>
       </c>
       <c r="AC2" t="n">
-        <v>656.4886150244703</v>
+        <v>715.354098663587</v>
       </c>
       <c r="AD2" t="n">
-        <v>530426.9191513248</v>
+        <v>577988.8058565276</v>
       </c>
       <c r="AE2" t="n">
-        <v>725753.5115669719</v>
+        <v>790829.7832393824</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.957480485717047e-06</v>
+        <v>4.655920115848225e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.791666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>656488.6150244703</v>
+        <v>715354.098663587</v>
       </c>
     </row>
   </sheetData>
@@ -16748,28 +16748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1657.053978842173</v>
+        <v>1726.108265303074</v>
       </c>
       <c r="AB2" t="n">
-        <v>2267.254357913981</v>
+        <v>2361.737479109897</v>
       </c>
       <c r="AC2" t="n">
-        <v>2050.870784106147</v>
+        <v>2136.336568823018</v>
       </c>
       <c r="AD2" t="n">
-        <v>1657053.978842173</v>
+        <v>1726108.265303074</v>
       </c>
       <c r="AE2" t="n">
-        <v>2267254.357913982</v>
+        <v>2361737.479109897</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.286043244129154e-06</v>
+        <v>2.495667477369141e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.4625</v>
       </c>
       <c r="AH2" t="n">
-        <v>2050870.784106147</v>
+        <v>2136336.568823018</v>
       </c>
     </row>
     <row r="3">
@@ -16854,28 +16854,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>777.9260219002977</v>
+        <v>823.9337957588915</v>
       </c>
       <c r="AB3" t="n">
-        <v>1064.392702837913</v>
+        <v>1127.342568750973</v>
       </c>
       <c r="AC3" t="n">
-        <v>962.808557163603</v>
+        <v>1019.750576224612</v>
       </c>
       <c r="AD3" t="n">
-        <v>777926.0219002976</v>
+        <v>823933.7957588915</v>
       </c>
       <c r="AE3" t="n">
-        <v>1064392.702837913</v>
+        <v>1127342.568750973</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.95922333423026e-06</v>
+        <v>3.802026081519654e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.180208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>962808.557163603</v>
+        <v>1019750.576224612</v>
       </c>
     </row>
     <row r="4">
@@ -16960,28 +16960,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>603.6280883394551</v>
+        <v>649.5505213434772</v>
       </c>
       <c r="AB4" t="n">
-        <v>825.9105806578361</v>
+        <v>888.7436794486987</v>
       </c>
       <c r="AC4" t="n">
-        <v>747.086834012632</v>
+        <v>803.9232300417024</v>
       </c>
       <c r="AD4" t="n">
-        <v>603628.0883394551</v>
+        <v>649550.5213434772</v>
       </c>
       <c r="AE4" t="n">
-        <v>825910.5806578362</v>
+        <v>888743.6794486986</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.198644641703934e-06</v>
+        <v>4.266641850218671e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.290624999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>747086.834012632</v>
+        <v>803923.2300417024</v>
       </c>
     </row>
     <row r="5">
@@ -17066,28 +17066,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>592.7323940582689</v>
+        <v>627.3022524702809</v>
       </c>
       <c r="AB5" t="n">
-        <v>811.0026110582107</v>
+        <v>858.3026164520412</v>
       </c>
       <c r="AC5" t="n">
-        <v>733.6016601081279</v>
+        <v>776.3874193731457</v>
       </c>
       <c r="AD5" t="n">
-        <v>592732.394058269</v>
+        <v>627302.2524702809</v>
       </c>
       <c r="AE5" t="n">
-        <v>811002.6110582107</v>
+        <v>858302.6164520412</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.219417055912768e-06</v>
+        <v>4.3069523442896e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.221875</v>
       </c>
       <c r="AH5" t="n">
-        <v>733601.660108128</v>
+        <v>776387.4193731457</v>
       </c>
     </row>
   </sheetData>
@@ -17363,28 +17363,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2708.639245214035</v>
+        <v>2804.533890847031</v>
       </c>
       <c r="AB2" t="n">
-        <v>3706.079712031897</v>
+        <v>3837.286996760156</v>
       </c>
       <c r="AC2" t="n">
-        <v>3352.376665830977</v>
+        <v>3471.061711455347</v>
       </c>
       <c r="AD2" t="n">
-        <v>2708639.245214035</v>
+        <v>2804533.890847031</v>
       </c>
       <c r="AE2" t="n">
-        <v>3706079.712031897</v>
+        <v>3837286.996760156</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.897274342688428e-07</v>
+        <v>1.857116866731944e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.60625</v>
       </c>
       <c r="AH2" t="n">
-        <v>3352376.665830977</v>
+        <v>3471061.711455347</v>
       </c>
     </row>
     <row r="3">
@@ -17469,28 +17469,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1024.295321633231</v>
+        <v>1084.144134299281</v>
       </c>
       <c r="AB3" t="n">
-        <v>1401.486047778917</v>
+        <v>1483.373833611877</v>
       </c>
       <c r="AC3" t="n">
-        <v>1267.730186376918</v>
+        <v>1341.80271686021</v>
       </c>
       <c r="AD3" t="n">
-        <v>1024295.321633231</v>
+        <v>1084144.134299281</v>
       </c>
       <c r="AE3" t="n">
-        <v>1401486.047778917</v>
+        <v>1483373.833611876</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.719679218374538e-06</v>
+        <v>3.226792722150873e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.981250000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>1267730.186376919</v>
+        <v>1341802.71686021</v>
       </c>
     </row>
     <row r="4">
@@ -17575,28 +17575,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>780.2129005701105</v>
+        <v>828.1602233866084</v>
       </c>
       <c r="AB4" t="n">
-        <v>1067.521711123918</v>
+        <v>1133.125353488043</v>
       </c>
       <c r="AC4" t="n">
-        <v>965.6389372903818</v>
+        <v>1024.981460102566</v>
       </c>
       <c r="AD4" t="n">
-        <v>780212.9005701105</v>
+        <v>828160.2233866084</v>
       </c>
       <c r="AE4" t="n">
-        <v>1067521.711123918</v>
+        <v>1133125.353488043</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.990575401506998e-06</v>
+        <v>3.735100215112561e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.759374999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>965638.9372903819</v>
+        <v>1024981.460102566</v>
       </c>
     </row>
     <row r="5">
@@ -17681,28 +17681,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>669.8825334458428</v>
+        <v>705.8431150667674</v>
       </c>
       <c r="AB5" t="n">
-        <v>916.5628353922234</v>
+        <v>965.7656896348658</v>
       </c>
       <c r="AC5" t="n">
-        <v>829.0873647864076</v>
+        <v>873.5943676767721</v>
       </c>
       <c r="AD5" t="n">
-        <v>669882.5334458428</v>
+        <v>705843.1150667674</v>
       </c>
       <c r="AE5" t="n">
-        <v>916562.8353922234</v>
+        <v>965765.6896348658</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.137366436701928e-06</v>
+        <v>4.010537772875051e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.226041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>829087.3647864077</v>
+        <v>873594.3676767721</v>
       </c>
     </row>
     <row r="6">
@@ -17787,28 +17787,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>637.6212951135257</v>
+        <v>673.5818767344502</v>
       </c>
       <c r="AB6" t="n">
-        <v>872.4215858405609</v>
+        <v>921.6244400832034</v>
       </c>
       <c r="AC6" t="n">
-        <v>789.1588941393229</v>
+        <v>833.6658970296875</v>
       </c>
       <c r="AD6" t="n">
-        <v>637621.2951135257</v>
+        <v>673581.8767344502</v>
       </c>
       <c r="AE6" t="n">
-        <v>872421.5858405608</v>
+        <v>921624.4400832034</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.179772735758241e-06</v>
+        <v>4.090108622895326e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.085416666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>789158.8941393229</v>
+        <v>833665.8970296874</v>
       </c>
     </row>
     <row r="7">
@@ -17893,28 +17893,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>640.2227557997712</v>
+        <v>676.1833374206957</v>
       </c>
       <c r="AB7" t="n">
-        <v>875.9810191198272</v>
+        <v>925.18387336247</v>
       </c>
       <c r="AC7" t="n">
-        <v>792.3786201021123</v>
+        <v>836.8856229924768</v>
       </c>
       <c r="AD7" t="n">
-        <v>640222.7557997712</v>
+        <v>676183.3374206957</v>
       </c>
       <c r="AE7" t="n">
-        <v>875981.0191198272</v>
+        <v>925183.87336247</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.179624461985317e-06</v>
+        <v>4.089830403140011e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.086458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>792378.6201021123</v>
+        <v>836885.6229924768</v>
       </c>
     </row>
   </sheetData>
@@ -18190,28 +18190,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>575.7931913111147</v>
+        <v>630.7543490905151</v>
       </c>
       <c r="AB2" t="n">
-        <v>787.825646554671</v>
+        <v>863.0259273436002</v>
       </c>
       <c r="AC2" t="n">
-        <v>712.636672567732</v>
+        <v>780.6599441024226</v>
       </c>
       <c r="AD2" t="n">
-        <v>575793.1913111147</v>
+        <v>630754.3490905152</v>
       </c>
       <c r="AE2" t="n">
-        <v>787825.646554671</v>
+        <v>863025.9273436002</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.70765865354003e-06</v>
+        <v>4.270724699088152e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.62291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>712636.6725677321</v>
+        <v>780659.9441024227</v>
       </c>
     </row>
   </sheetData>
@@ -18487,28 +18487,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>866.2189001344186</v>
+        <v>920.2886350061334</v>
       </c>
       <c r="AB2" t="n">
-        <v>1185.198914044715</v>
+        <v>1259.179510684545</v>
       </c>
       <c r="AC2" t="n">
-        <v>1072.08519312541</v>
+        <v>1139.005185454354</v>
       </c>
       <c r="AD2" t="n">
-        <v>866218.9001344186</v>
+        <v>920288.6350061334</v>
       </c>
       <c r="AE2" t="n">
-        <v>1185198.914044715</v>
+        <v>1259179.510684545</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.769026133909943e-06</v>
+        <v>3.642926254541246e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.615625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1072085.19312541</v>
+        <v>1139005.185454354</v>
       </c>
     </row>
     <row r="3">
@@ -18593,28 +18593,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>536.0949410168623</v>
+        <v>579.3507289142339</v>
       </c>
       <c r="AB3" t="n">
-        <v>733.508749138877</v>
+        <v>792.693226450741</v>
       </c>
       <c r="AC3" t="n">
-        <v>663.503703607057</v>
+        <v>717.0396974702123</v>
       </c>
       <c r="AD3" t="n">
-        <v>536094.9410168623</v>
+        <v>579350.7289142339</v>
       </c>
       <c r="AE3" t="n">
-        <v>733508.7491388769</v>
+        <v>792693.2264507411</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.243738491638754e-06</v>
+        <v>4.620493560176935e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.58125</v>
       </c>
       <c r="AH3" t="n">
-        <v>663503.703607057</v>
+        <v>717039.6974702124</v>
       </c>
     </row>
     <row r="4">
@@ -18699,28 +18699,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>540.0836564743599</v>
+        <v>583.3394443717315</v>
       </c>
       <c r="AB4" t="n">
-        <v>738.9662855975319</v>
+        <v>798.150762909396</v>
       </c>
       <c r="AC4" t="n">
-        <v>668.4403804457984</v>
+        <v>721.9763743089537</v>
       </c>
       <c r="AD4" t="n">
-        <v>540083.6564743599</v>
+        <v>583339.4443717315</v>
       </c>
       <c r="AE4" t="n">
-        <v>738966.2855975318</v>
+        <v>798150.762909396</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.242758693170789e-06</v>
+        <v>4.618475877399564e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.584375000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>668440.3804457984</v>
+        <v>721976.3743089538</v>
       </c>
     </row>
   </sheetData>
@@ -18996,28 +18996,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1298.054919654181</v>
+        <v>1365.45217142623</v>
       </c>
       <c r="AB2" t="n">
-        <v>1776.056007212264</v>
+        <v>1868.271900443681</v>
       </c>
       <c r="AC2" t="n">
-        <v>1606.551714594187</v>
+        <v>1689.966652401416</v>
       </c>
       <c r="AD2" t="n">
-        <v>1298054.919654181</v>
+        <v>1365452.17142623</v>
       </c>
       <c r="AE2" t="n">
-        <v>1776056.007212264</v>
+        <v>1868271.900443681</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.458868985373422e-06</v>
+        <v>2.890288054994557e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.22604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1606551.714594187</v>
+        <v>1689966.652401416</v>
       </c>
     </row>
     <row r="3">
@@ -19102,28 +19102,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>652.8190335305151</v>
+        <v>697.8642628456093</v>
       </c>
       <c r="AB3" t="n">
-        <v>893.2158020195847</v>
+        <v>954.8486720237604</v>
       </c>
       <c r="AC3" t="n">
-        <v>807.9685395110866</v>
+        <v>863.7192549043401</v>
       </c>
       <c r="AD3" t="n">
-        <v>652819.033530515</v>
+        <v>697864.2628456093</v>
       </c>
       <c r="AE3" t="n">
-        <v>893215.8020195847</v>
+        <v>954848.6720237604</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.096878506080971e-06</v>
+        <v>4.15430238058653e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.810416666666668</v>
       </c>
       <c r="AH3" t="n">
-        <v>807968.5395110867</v>
+        <v>863719.2549043401</v>
       </c>
     </row>
     <row r="4">
@@ -19208,28 +19208,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>568.606346028341</v>
+        <v>613.480983142843</v>
       </c>
       <c r="AB4" t="n">
-        <v>777.9922877775432</v>
+        <v>839.3917460068723</v>
       </c>
       <c r="AC4" t="n">
-        <v>703.7417957510877</v>
+        <v>759.2813758616901</v>
       </c>
       <c r="AD4" t="n">
-        <v>568606.346028341</v>
+        <v>613480.983142843</v>
       </c>
       <c r="AE4" t="n">
-        <v>777992.2877775432</v>
+        <v>839391.7460068723</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.23554888490405e-06</v>
+        <v>4.429033931885721e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.326041666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>703741.7957510877</v>
+        <v>759281.3758616901</v>
       </c>
     </row>
   </sheetData>
